--- a/medicine/Psychotrope/Anton_Dreher/Anton_Dreher.xlsx
+++ b/medicine/Psychotrope/Anton_Dreher/Anton_Dreher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anton Dreher senior (né le 7 mai 1810 à Schwechat près de Vienne et mort le 27 décembre 1863 id.) était un maître brasseur autrichien à qui on attribue l'invention de la bière de fermentation basse de type Lager.
 Fils de Franz Anton Dreher (et père de Anton Dreher junior), il apprend le métier dans la brasserie familiale Brauerei Schwechat. En 1839 il achète cette brasserie.
